--- a/Real/yongsan6.xlsx
+++ b/Real/yongsan6.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Pandas/Real/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048ECB1-133F-E14C-80AC-0D6E2249DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$56</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -316,8 +335,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +349,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -366,20 +395,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,6 +550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,14 +743,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>87767</v>
       </c>
@@ -782,8 +864,12 @@
       <c r="R2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="2">
+        <f>G2/3.3</f>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>87768</v>
       </c>
@@ -838,8 +924,12 @@
       <c r="R3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S56" si="0">G3/3.3</f>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>87769</v>
       </c>
@@ -894,8 +984,12 @@
       <c r="R4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>87770</v>
       </c>
@@ -950,8 +1044,12 @@
       <c r="R5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>87780</v>
       </c>
@@ -1006,8 +1104,12 @@
       <c r="R6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1818181818181817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>87781</v>
       </c>
@@ -1062,8 +1164,12 @@
       <c r="R7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>87782</v>
       </c>
@@ -1118,8 +1224,12 @@
       <c r="R8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1818181818181817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>87816</v>
       </c>
@@ -1174,8 +1284,12 @@
       <c r="R9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4848484848484844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>87817</v>
       </c>
@@ -1230,8 +1344,12 @@
       <c r="R10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.787878787878789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>87859</v>
       </c>
@@ -1286,8 +1404,12 @@
       <c r="R11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>87860</v>
       </c>
@@ -1342,8 +1464,12 @@
       <c r="R12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>87861</v>
       </c>
@@ -1398,8 +1524,12 @@
       <c r="R13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>87862</v>
       </c>
@@ -1454,8 +1584,12 @@
       <c r="R14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>87863</v>
       </c>
@@ -1510,8 +1644,12 @@
       <c r="R15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>87864</v>
       </c>
@@ -1566,8 +1704,12 @@
       <c r="R16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>87897</v>
       </c>
@@ -1622,8 +1764,12 @@
       <c r="R17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>87898</v>
       </c>
@@ -1678,8 +1824,12 @@
       <c r="R18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>87899</v>
       </c>
@@ -1734,8 +1884,12 @@
       <c r="R19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>87900</v>
       </c>
@@ -1790,8 +1944,12 @@
       <c r="R20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9393939393939394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>88135</v>
       </c>
@@ -1846,8 +2004,12 @@
       <c r="R21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="2">
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>88136</v>
       </c>
@@ -1902,8 +2064,12 @@
       <c r="R22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>88137</v>
       </c>
@@ -1958,8 +2124,12 @@
       <c r="R23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="2">
+        <f t="shared" si="0"/>
+        <v>20.303030303030305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>88138</v>
       </c>
@@ -2014,8 +2184,12 @@
       <c r="R24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="2">
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>88222</v>
       </c>
@@ -2070,8 +2244,12 @@
       <c r="R25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="2">
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>88223</v>
       </c>
@@ -2126,8 +2304,12 @@
       <c r="R26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="2">
+        <f t="shared" si="0"/>
+        <v>15.757575757575758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>88224</v>
       </c>
@@ -2182,8 +2364,12 @@
       <c r="R27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="2">
+        <f t="shared" si="0"/>
+        <v>16.363636363636363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>88225</v>
       </c>
@@ -2238,8 +2424,12 @@
       <c r="R28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="2">
+        <f t="shared" si="0"/>
+        <v>19.393939393939394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>88475</v>
       </c>
@@ -2294,8 +2484,12 @@
       <c r="R29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0606060606060606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>88835</v>
       </c>
@@ -2350,8 +2544,12 @@
       <c r="R30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>88836</v>
       </c>
@@ -2406,8 +2604,12 @@
       <c r="R31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>88837</v>
       </c>
@@ -2462,8 +2664,12 @@
       <c r="R32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>88838</v>
       </c>
@@ -2518,8 +2724,12 @@
       <c r="R33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>88891</v>
       </c>
@@ -2574,8 +2784,12 @@
       <c r="R34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="2">
+        <f t="shared" si="0"/>
+        <v>18.484848484848484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>88973</v>
       </c>
@@ -2630,8 +2844,12 @@
       <c r="R35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6969696969696972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>88974</v>
       </c>
@@ -2686,8 +2904,12 @@
       <c r="R36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3939393939393945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>88975</v>
       </c>
@@ -2742,8 +2964,12 @@
       <c r="R37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="2">
+        <f t="shared" si="0"/>
+        <v>8.787878787878789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>88976</v>
       </c>
@@ -2798,8 +3024,12 @@
       <c r="R38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="2">
+        <f t="shared" si="0"/>
+        <v>10.303030303030303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>88977</v>
       </c>
@@ -2854,8 +3084,12 @@
       <c r="R39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="2">
+        <f t="shared" si="0"/>
+        <v>10.303030303030303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>89169</v>
       </c>
@@ -2910,8 +3144,12 @@
       <c r="R40" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6969696969696972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>89171</v>
       </c>
@@ -2966,8 +3204,12 @@
       <c r="R41" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="2">
+        <f t="shared" si="0"/>
+        <v>11.212121212121213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>89175</v>
       </c>
@@ -3022,8 +3264,12 @@
       <c r="R42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="2">
+        <f t="shared" si="0"/>
+        <v>11.212121212121213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>89177</v>
       </c>
@@ -3078,8 +3324,12 @@
       <c r="R43" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="2">
+        <f t="shared" si="0"/>
+        <v>11.212121212121213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>89216</v>
       </c>
@@ -3134,8 +3384,12 @@
       <c r="R44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="2">
+        <f t="shared" si="0"/>
+        <v>8.787878787878789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>89217</v>
       </c>
@@ -3190,8 +3444,12 @@
       <c r="R45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6969696969696972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>89220</v>
       </c>
@@ -3246,8 +3504,12 @@
       <c r="R46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="2">
+        <f t="shared" si="0"/>
+        <v>11.515151515151516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>89221</v>
       </c>
@@ -3302,8 +3564,12 @@
       <c r="R47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="2">
+        <f t="shared" si="0"/>
+        <v>15.151515151515152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>89240</v>
       </c>
@@ -3358,8 +3624,12 @@
       <c r="R48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="2">
+        <f t="shared" si="0"/>
+        <v>23.030303030303031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>89242</v>
       </c>
@@ -3414,8 +3684,12 @@
       <c r="R49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="2">
+        <f t="shared" si="0"/>
+        <v>16.363636363636363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>89252</v>
       </c>
@@ -3470,8 +3744,12 @@
       <c r="R50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="2">
+        <f t="shared" si="0"/>
+        <v>25.454545454545457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>89254</v>
       </c>
@@ -3526,8 +3804,12 @@
       <c r="R51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>89285</v>
       </c>
@@ -3582,8 +3864,12 @@
       <c r="R52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>89287</v>
       </c>
@@ -3638,8 +3924,12 @@
       <c r="R53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="2">
+        <f t="shared" si="0"/>
+        <v>10.303030303030303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>89304</v>
       </c>
@@ -3694,8 +3984,12 @@
       <c r="R54" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="2">
+        <f t="shared" si="0"/>
+        <v>19.696969696969699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>89305</v>
       </c>
@@ -3750,8 +4044,12 @@
       <c r="R55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="2">
+        <f t="shared" si="0"/>
+        <v>14.545454545454547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>89306</v>
       </c>
@@ -3806,8 +4104,20 @@
       <c r="R56" t="s">
         <v>98</v>
       </c>
+      <c r="S56" s="2">
+        <f t="shared" si="0"/>
+        <v>21.515151515151516</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S56" xr:uid="{7A269C0B-D4FF-9B43-BC04-9E385C8A4ED9}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="18"/>
+        <filter val="19"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>